--- a/biology/Botanique/Begonia_pseudoviola/Begonia_pseudoviola.xlsx
+++ b/biology/Botanique/Begonia_pseudoviola/Begonia_pseudoviola.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Begonia pseudoviola Gilg est une espèce de plantes de la famille des Begoniaceae, de la section Loasibegonia.
 Décrite en 1904 par Ernest Friedrich Gilg, elle est endémique du Cameroun.
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une petite herbe à fleurs ne dépassant pas 11 cm de hauteur[2]. Selon Gilg[3], elle ressemble à une violette (Viola), d'où son épithète spécifique pseudoviola.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une petite herbe à fleurs ne dépassant pas 11 cm de hauteur. Selon Gilg, elle ressemble à une violette (Viola), d'où son épithète spécifique pseudoviola.
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On la trouve le long des cours d'eau et des routes, sur des roches humides, en forêt, à une altitude comprise entre 450 et 1 700 m[2].
-Endémique du Cameroun, mais assez commune, l'espèce y a été observée sur une douzaine de sites dans quatre régions (Nord-Ouest, Ouest, Sud-Ouest, Littoral[2]). Aucun de ces sites n'est protégé.  À basse altitude, la plante est menacée par la déforestation. Elle n'est pas non plus cultivée. C'est pourquoi elle est considérée comme une « espèce en danger »[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On la trouve le long des cours d'eau et des routes, sur des roches humides, en forêt, à une altitude comprise entre 450 et 1 700 m.
+Endémique du Cameroun, mais assez commune, l'espèce y a été observée sur une douzaine de sites dans quatre régions (Nord-Ouest, Ouest, Sud-Ouest, Littoral). Aucun de ces sites n'est protégé.  À basse altitude, la plante est menacée par la déforestation. Elle n'est pas non plus cultivée. C'est pourquoi elle est considérée comme une « espèce en danger ».
 </t>
         </is>
       </c>
